--- a/Documents/FTPLC输入输出表.xlsx
+++ b/Documents/FTPLC输入输出表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7704FA3C-3EAF-40F7-8883-56BA64963F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1E603-B1EF-402E-BBA6-47C829494AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="480" windowWidth="21600" windowHeight="14865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="输出汇总" sheetId="1" r:id="rId1"/>
@@ -14447,8 +14447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6FDBC5-AB13-43A1-8B12-630D5727FF40}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15011,6 +15011,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/FTPLC输入输出表.xlsx
+++ b/Documents/FTPLC输入输出表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1E603-B1EF-402E-BBA6-47C829494AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AF159C-161E-49E6-82F1-F1D6FBB8BF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="480" windowWidth="21600" windowHeight="14865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="输出汇总" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1886">
   <si>
     <t>Y00</t>
   </si>
@@ -5762,6 +5762,10 @@
   </si>
   <si>
     <t>上料Y回原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG位卡盘夹紧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5866,7 +5870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5891,25 +5895,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -5919,6 +5905,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8293,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B4F5F0-D914-4681-8D60-1168B3D5C684}">
   <dimension ref="A1:I841"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A461" activeCellId="12" sqref="A31:C32 A34:C35 A51:C52 A265:C268 A301:C304 A307:C310 A350:C354 A358:C360 A380:C387 A401:C404 A421:C424 A441:C444 A461:C464"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8637,7 +8629,7 @@
       <c r="C34" s="6" t="s">
         <v>1840</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>1688</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -8657,7 +8649,7 @@
       <c r="C35" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>1688</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -10009,67 +10001,67 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="5" t="s">
         <v>630</v>
       </c>
@@ -10078,7 +10070,7 @@
       </c>
       <c r="C205" s="5"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="5" t="s">
         <v>633</v>
       </c>
@@ -10086,20 +10078,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="6" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C207" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A208" s="5" t="s">
+      <c r="D207" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -10920,7 +10924,7 @@
       <c r="C307" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="D307" s="10" t="s">
+      <c r="D307" s="7" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -10934,7 +10938,7 @@
       <c r="C308" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D308" s="10" t="s">
+      <c r="D308" s="7" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -10948,7 +10952,7 @@
       <c r="C309" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="D309" s="10" t="s">
+      <c r="D309" s="7" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -10962,7 +10966,7 @@
       <c r="C310" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="D310" s="10" t="s">
+      <c r="D310" s="7" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -11421,7 +11425,7 @@
       <c r="B370" t="s">
         <v>612</v>
       </c>
-      <c r="C370" s="12" t="s">
+      <c r="C370" s="7" t="s">
         <v>1694</v>
       </c>
       <c r="D370">
@@ -11467,28 +11471,26 @@
       <c r="A378" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="B378" s="11" t="s">
+      <c r="B378" t="s">
         <v>1692</v>
       </c>
-      <c r="C378" s="11"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="B379" s="11" t="s">
+      <c r="B379" t="s">
         <v>1693</v>
       </c>
-      <c r="C379" s="11"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="B380" s="13" t="s">
+      <c r="B380" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C380" s="15" t="s">
+      <c r="C380" s="9" t="s">
         <v>1876</v>
       </c>
       <c r="D380" s="6" t="s">
@@ -11499,10 +11501,10 @@
       <c r="A381" s="6" t="s">
         <v>1319</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="C381" s="14" t="s">
+      <c r="C381" s="9" t="s">
         <v>1877</v>
       </c>
       <c r="D381" s="6" t="s">
@@ -11513,10 +11515,10 @@
       <c r="A382" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="C382" s="14" t="s">
+      <c r="C382" s="9" t="s">
         <v>1878</v>
       </c>
       <c r="D382" s="6" t="s">
@@ -11527,10 +11529,10 @@
       <c r="A383" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="B383" s="15" t="s">
+      <c r="B383" s="9" t="s">
         <v>1873</v>
       </c>
-      <c r="C383" s="15" t="s">
+      <c r="C383" s="9" t="s">
         <v>1879</v>
       </c>
       <c r="D383" s="6" t="s">
@@ -11541,10 +11543,10 @@
       <c r="A384" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="B384" s="15" t="s">
+      <c r="B384" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="C384" s="15" t="s">
+      <c r="C384" s="9" t="s">
         <v>1880</v>
       </c>
       <c r="D384" s="6" t="s">
@@ -11555,10 +11557,10 @@
       <c r="A385" s="6" t="s">
         <v>1323</v>
       </c>
-      <c r="B385" s="15" t="s">
+      <c r="B385" s="9" t="s">
         <v>1833</v>
       </c>
-      <c r="C385" s="15" t="s">
+      <c r="C385" s="9" t="s">
         <v>1881</v>
       </c>
       <c r="D385" s="6" t="s">
@@ -11569,10 +11571,10 @@
       <c r="A386" s="6" t="s">
         <v>1324</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B386" s="9" t="s">
         <v>1874</v>
       </c>
-      <c r="C386" s="15" t="s">
+      <c r="C386" s="9" t="s">
         <v>1882</v>
       </c>
       <c r="D386" s="6" t="s">
@@ -11583,10 +11585,10 @@
       <c r="A387" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="B387" s="15" t="s">
+      <c r="B387" s="9" t="s">
         <v>1875</v>
       </c>
-      <c r="C387" s="15" t="s">
+      <c r="C387" s="9" t="s">
         <v>1883</v>
       </c>
       <c r="D387" s="6" t="s">
@@ -11594,16 +11596,16 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A388" s="17" t="s">
+      <c r="A388" s="11" t="s">
         <v>1326</v>
       </c>
-      <c r="B388" s="16" t="s">
+      <c r="B388" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C388" s="16" t="s">
+      <c r="C388" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="D388" s="17" t="s">
+      <c r="D388" s="11" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -14447,7 +14449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6FDBC5-AB13-43A1-8B12-630D5727FF40}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -14748,10 +14750,10 @@
       <c r="A27" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="9" t="s">
         <v>1876</v>
       </c>
     </row>
@@ -14759,10 +14761,10 @@
       <c r="A28" s="6" t="s">
         <v>1319</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>1877</v>
       </c>
     </row>
@@ -14770,10 +14772,10 @@
       <c r="A29" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>1878</v>
       </c>
     </row>
@@ -14781,10 +14783,10 @@
       <c r="A30" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="9" t="s">
         <v>1873</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="9" t="s">
         <v>1879</v>
       </c>
     </row>
@@ -14792,10 +14794,10 @@
       <c r="A31" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="9" t="s">
         <v>1880</v>
       </c>
     </row>
@@ -14803,10 +14805,10 @@
       <c r="A32" s="6" t="s">
         <v>1323</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="9" t="s">
         <v>1833</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="9" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -14814,10 +14816,10 @@
       <c r="A33" s="6" t="s">
         <v>1324</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>1874</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -14825,10 +14827,10 @@
       <c r="A34" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>1875</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="9" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -15649,8 +15651,8 @@
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/FTPLC输入输出表.xlsx
+++ b/Documents/FTPLC输入输出表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AF159C-161E-49E6-82F1-F1D6FBB8BF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDCB55E-8540-4AF2-A53E-A6D5839293BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="输出汇总" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1903">
   <si>
     <t>Y00</t>
   </si>
@@ -5529,10 +5529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5766,6 +5762,78 @@
   </si>
   <si>
     <t>NG位卡盘夹紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮名称（唯一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tray测试回原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tray盘测试初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tray盘测试料轴定位停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖盘夹爪松开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖盘夹爪夹紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖盘夹爪上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖盘夹爪下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试轴定位停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tray测试_回原点TPB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试位卡盘夹紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试位卡盘松开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG位卡盘松开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tray测试_JOG正 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tray测试_JOG负 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tray盘测试初始位置PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tray盘测试料轴定位停止PB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5773,7 +5841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5796,8 +5864,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5840,6 +5917,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5870,7 +5953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5911,6 +5994,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6395,7 +6481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -8285,8 +8371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B4F5F0-D914-4681-8D60-1168B3D5C684}">
   <dimension ref="A1:I841"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A461" activeCellId="11" sqref="A31:D35 A51:D52 A205:D208 A265:D272 A301:D310 A350:D354 A358:D360 A380:D387 A401:D406 A421:D424 A441:D444 A461:D464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8300,17 +8386,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>1825</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>1826</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1827</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1825</v>
@@ -8567,10 +8653,10 @@
         <v>507</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1688</v>
@@ -8590,7 +8676,7 @@
         <v>508</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>509</v>
@@ -8606,11 +8692,17 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>512</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1688</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>873</v>
@@ -8624,10 +8716,10 @@
         <v>515</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>1688</v>
@@ -8644,7 +8736,7 @@
         <v>518</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>519</v>
@@ -8829,10 +8921,10 @@
         <v>569</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>1688</v>
@@ -8846,7 +8938,7 @@
         <v>571</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>572</v>
@@ -10062,28 +10154,39 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C205" s="5"/>
+      <c r="C205" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="C206" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="9" t="s">
         <v>636</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>37</v>
@@ -10093,7 +10196,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="9" t="s">
         <v>639</v>
       </c>
       <c r="B208" s="7" t="s">
@@ -10604,42 +10707,66 @@
         <v>378</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>1688</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B269" t="s">
-        <v>384</v>
+      <c r="B269" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="B270" t="s">
-        <v>390</v>
+      <c r="B270" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B271" t="s">
-        <v>396</v>
+      <c r="B271" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="B272" t="s">
-        <v>402</v>
+      <c r="B272" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
@@ -10847,10 +10974,10 @@
         <v>1239</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>1688</v>
@@ -10861,10 +10988,10 @@
         <v>1240</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>1688</v>
@@ -10875,7 +11002,7 @@
         <v>1241</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>513</v>
@@ -10889,7 +11016,7 @@
         <v>1242</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>516</v>
@@ -10899,19 +11026,31 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C305" s="7" t="s">
         <v>520</v>
       </c>
+      <c r="D305" s="6" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C306" s="7" t="s">
         <v>524</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
@@ -10919,7 +11058,7 @@
         <v>1245</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>528</v>
@@ -10933,7 +11072,7 @@
         <v>1246</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>532</v>
@@ -10947,7 +11086,7 @@
         <v>1247</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>536</v>
@@ -10961,7 +11100,7 @@
         <v>1248</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>540</v>
@@ -11242,10 +11381,10 @@
         <v>1288</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>1688</v>
@@ -11256,7 +11395,7 @@
         <v>1289</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>598</v>
@@ -11270,7 +11409,7 @@
         <v>1290</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>599</v>
@@ -11284,7 +11423,7 @@
         <v>1291</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>600</v>
@@ -11298,7 +11437,7 @@
         <v>1292</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>601</v>
@@ -11336,10 +11475,10 @@
         <v>1296</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>1688</v>
@@ -11350,7 +11489,7 @@
         <v>1297</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>607</v>
@@ -11364,7 +11503,7 @@
         <v>1298</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>610</v>
@@ -11491,7 +11630,7 @@
         <v>612</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>1688</v>
@@ -11502,10 +11641,10 @@
         <v>1319</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>1688</v>
@@ -11516,10 +11655,10 @@
         <v>1320</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>1688</v>
@@ -11530,10 +11669,10 @@
         <v>1321</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>1688</v>
@@ -11544,10 +11683,10 @@
         <v>1322</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>1688</v>
@@ -11558,10 +11697,10 @@
         <v>1323</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>1688</v>
@@ -11572,10 +11711,10 @@
         <v>1324</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>1688</v>
@@ -11586,10 +11725,10 @@
         <v>1325</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>1688</v>
@@ -11680,10 +11819,10 @@
         <v>1339</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>1688</v>
@@ -11694,7 +11833,7 @@
         <v>1340</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>510</v>
@@ -11708,7 +11847,7 @@
         <v>1341</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>514</v>
@@ -11722,7 +11861,7 @@
         <v>1342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>517</v>
@@ -11732,19 +11871,31 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="9" t="s">
         <v>1343</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="6" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C405" s="7" t="s">
         <v>521</v>
       </c>
+      <c r="D405" s="6" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A406" s="5" t="s">
+      <c r="A406" s="9" t="s">
         <v>1344</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="6" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C406" s="7" t="s">
         <v>525</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
@@ -11834,10 +11985,10 @@
         <v>1359</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>1688</v>
@@ -11848,7 +11999,7 @@
         <v>1360</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>1709</v>
@@ -11862,7 +12013,7 @@
         <v>1361</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>1710</v>
@@ -11876,7 +12027,7 @@
         <v>1362</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>1711</v>
@@ -12006,7 +12157,7 @@
         <v>1379</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>1724</v>
@@ -12020,7 +12171,7 @@
         <v>1380</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>1725</v>
@@ -12034,7 +12185,7 @@
         <v>1381</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>1726</v>
@@ -12048,7 +12199,7 @@
         <v>1382</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>1727</v>
@@ -12178,10 +12329,10 @@
         <v>1399</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>1688</v>
@@ -12192,7 +12343,7 @@
         <v>1400</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>1740</v>
@@ -12206,7 +12357,7 @@
         <v>1401</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>1741</v>
@@ -12220,7 +12371,7 @@
         <v>1402</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>1742</v>
@@ -14447,567 +14598,899 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6FDBC5-AB13-43A1-8B12-630D5727FF40}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>507</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1841</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>508</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="D5" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>1845</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C54" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>1828</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C57" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>1828</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="C59" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>1859</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="D60" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>1861</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="C61" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>1862</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="C62" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>1863</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>1742</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>1688</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/FTPLC输入输出表.xlsx
+++ b/Documents/FTPLC输入输出表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDCB55E-8540-4AF2-A53E-A6D5839293BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30A983-AA5C-4955-B167-C353FE0D2348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="输出汇总" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1903">
   <si>
     <t>Y00</t>
   </si>
@@ -5990,13 +5990,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8369,10 +8369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B4F5F0-D914-4681-8D60-1168B3D5C684}">
-  <dimension ref="A1:I841"/>
+  <dimension ref="A1:N841"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A461" activeCellId="11" sqref="A31:D35 A51:D52 A205:D208 A265:D272 A301:D310 A350:D354 A358:D360 A380:D387 A401:D406 A421:D424 A441:D444 A461:D464"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8385,24 +8385,45 @@
     <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>1825</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1829</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>1885</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>1826</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="12" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>1829</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1129</v>
       </c>
@@ -8410,7 +8431,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1130</v>
       </c>
@@ -8418,7 +8439,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1131</v>
       </c>
@@ -8426,7 +8447,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>1132</v>
       </c>
@@ -8434,7 +8455,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>1133</v>
       </c>
@@ -8442,7 +8463,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>1134</v>
       </c>
@@ -8450,7 +8471,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>1135</v>
       </c>
@@ -8458,7 +8479,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>1136</v>
       </c>
@@ -8466,7 +8487,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>1137</v>
       </c>
@@ -8474,7 +8495,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>1138</v>
       </c>
@@ -8482,7 +8503,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>1139</v>
       </c>
@@ -8490,7 +8511,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>1140</v>
       </c>
@@ -8498,7 +8519,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>1141</v>
       </c>
@@ -8506,7 +8527,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>1142</v>
       </c>
@@ -8514,7 +8535,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>1143</v>
       </c>
@@ -14600,7 +14621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6FDBC5-AB13-43A1-8B12-630D5727FF40}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -15505,7 +15526,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16134,8 +16155,8 @@
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
